--- a/data/trans_orig/P57B5_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P57B5_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0A6CC996-1DBE-4E03-8070-6A47E1CFCD98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8CF6F45F-962E-490D-A642-965D092ED193}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{212B7B56-96E4-4985-8C61-F119C47F814C}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{CE200D04-919E-4C24-9637-0F6C1D017336}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="333">
   <si>
     <t>Población según se ha sentido rebosante de energía en 2023 (Tasa respuesta: 99,63%)</t>
   </si>
@@ -74,10 +74,10 @@
     <t>7,07%</t>
   </si>
   <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
   </si>
   <si>
     <t>0,06%</t>
@@ -92,10 +92,10 @@
     <t>3,49%</t>
   </si>
   <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
   </si>
   <si>
     <t>Buena parte del tiempo</t>
@@ -104,28 +104,28 @@
     <t>65,95%</t>
   </si>
   <si>
-    <t>60,08%</t>
-  </si>
-  <si>
-    <t>71,66%</t>
+    <t>59,99%</t>
+  </si>
+  <si>
+    <t>71,67%</t>
   </si>
   <si>
     <t>61,0%</t>
   </si>
   <si>
-    <t>56,63%</t>
-  </si>
-  <si>
-    <t>65,49%</t>
+    <t>56,67%</t>
+  </si>
+  <si>
+    <t>64,87%</t>
   </si>
   <si>
     <t>63,43%</t>
   </si>
   <si>
-    <t>59,71%</t>
-  </si>
-  <si>
-    <t>67,4%</t>
+    <t>59,57%</t>
+  </si>
+  <si>
+    <t>66,82%</t>
   </si>
   <si>
     <t>En algún momento</t>
@@ -134,28 +134,28 @@
     <t>25,09%</t>
   </si>
   <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>30,19%</t>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>30,75%</t>
   </si>
   <si>
     <t>33,01%</t>
   </si>
   <si>
-    <t>28,72%</t>
-  </si>
-  <si>
-    <t>37,47%</t>
+    <t>29,11%</t>
+  </si>
+  <si>
+    <t>37,37%</t>
   </si>
   <si>
     <t>29,13%</t>
   </si>
   <si>
-    <t>25,58%</t>
-  </si>
-  <si>
-    <t>32,28%</t>
+    <t>26,09%</t>
+  </si>
+  <si>
+    <t>32,9%</t>
   </si>
   <si>
     <t>En ningún momento o en casi ningún momento</t>
@@ -164,139 +164,136 @@
     <t>1,89%</t>
   </si>
   <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
   </si>
   <si>
     <t>5,93%</t>
   </si>
   <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>50,27%</t>
+  </si>
+  <si>
+    <t>44,52%</t>
+  </si>
+  <si>
+    <t>55,57%</t>
+  </si>
+  <si>
+    <t>38,27%</t>
+  </si>
+  <si>
+    <t>34,43%</t>
+  </si>
+  <si>
+    <t>42,06%</t>
+  </si>
+  <si>
+    <t>44,09%</t>
+  </si>
+  <si>
+    <t>40,76%</t>
+  </si>
+  <si>
+    <t>47,37%</t>
+  </si>
+  <si>
+    <t>38,41%</t>
+  </si>
+  <si>
+    <t>33,28%</t>
+  </si>
+  <si>
+    <t>43,96%</t>
+  </si>
+  <si>
+    <t>44,29%</t>
+  </si>
+  <si>
+    <t>40,37%</t>
+  </si>
+  <si>
+    <t>48,45%</t>
+  </si>
+  <si>
+    <t>41,44%</t>
+  </si>
+  <si>
+    <t>38,35%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
     <t>4,22%</t>
   </si>
   <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>50,27%</t>
-  </si>
-  <si>
-    <t>44,85%</t>
-  </si>
-  <si>
-    <t>55,67%</t>
-  </si>
-  <si>
-    <t>38,27%</t>
-  </si>
-  <si>
-    <t>34,54%</t>
-  </si>
-  <si>
-    <t>42,18%</t>
-  </si>
-  <si>
-    <t>44,09%</t>
-  </si>
-  <si>
-    <t>40,91%</t>
-  </si>
-  <si>
-    <t>47,82%</t>
-  </si>
-  <si>
-    <t>38,41%</t>
-  </si>
-  <si>
-    <t>33,03%</t>
-  </si>
-  <si>
-    <t>43,6%</t>
-  </si>
-  <si>
-    <t>44,29%</t>
-  </si>
-  <si>
-    <t>40,48%</t>
-  </si>
-  <si>
-    <t>48,43%</t>
-  </si>
-  <si>
-    <t>41,44%</t>
-  </si>
-  <si>
-    <t>37,96%</t>
-  </si>
-  <si>
-    <t>44,7%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -305,34 +302,31 @@
     <t>44,76%</t>
   </si>
   <si>
-    <t>38,19%</t>
-  </si>
-  <si>
-    <t>49,84%</t>
+    <t>39,4%</t>
+  </si>
+  <si>
+    <t>50,43%</t>
   </si>
   <si>
     <t>34,93%</t>
   </si>
   <si>
-    <t>30,37%</t>
-  </si>
-  <si>
-    <t>39,57%</t>
+    <t>39,52%</t>
   </si>
   <si>
     <t>39,5%</t>
   </si>
   <si>
-    <t>36,02%</t>
-  </si>
-  <si>
-    <t>43,22%</t>
+    <t>35,98%</t>
+  </si>
+  <si>
+    <t>42,97%</t>
   </si>
   <si>
     <t>30,34%</t>
   </si>
   <si>
-    <t>25,91%</t>
+    <t>25,8%</t>
   </si>
   <si>
     <t>35,51%</t>
@@ -341,73 +335,73 @@
     <t>33,74%</t>
   </si>
   <si>
-    <t>29,33%</t>
-  </si>
-  <si>
-    <t>38,14%</t>
+    <t>29,3%</t>
+  </si>
+  <si>
+    <t>37,87%</t>
   </si>
   <si>
     <t>32,16%</t>
   </si>
   <si>
-    <t>29,04%</t>
-  </si>
-  <si>
-    <t>35,38%</t>
+    <t>29,08%</t>
+  </si>
+  <si>
+    <t>35,56%</t>
   </si>
   <si>
     <t>17,31%</t>
   </si>
   <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
   </si>
   <si>
     <t>21,12%</t>
   </si>
   <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>25,15%</t>
   </si>
   <si>
     <t>19,35%</t>
   </si>
   <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>22,17%</t>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
   </si>
   <si>
     <t>7,59%</t>
   </si>
   <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
   </si>
   <si>
     <t>10,21%</t>
   </si>
   <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
   </si>
   <si>
     <t>8,99%</t>
   </si>
   <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -416,637 +410,628 @@
     <t>48,28%</t>
   </si>
   <si>
+    <t>41,73%</t>
+  </si>
+  <si>
+    <t>55,79%</t>
+  </si>
+  <si>
+    <t>36,23%</t>
+  </si>
+  <si>
+    <t>30,35%</t>
+  </si>
+  <si>
+    <t>41,57%</t>
+  </si>
+  <si>
+    <t>41,4%</t>
+  </si>
+  <si>
+    <t>36,74%</t>
+  </si>
+  <si>
+    <t>45,95%</t>
+  </si>
+  <si>
+    <t>32,31%</t>
+  </si>
+  <si>
+    <t>25,82%</t>
+  </si>
+  <si>
+    <t>38,7%</t>
+  </si>
+  <si>
+    <t>39,18%</t>
+  </si>
+  <si>
+    <t>33,48%</t>
+  </si>
+  <si>
+    <t>47,69%</t>
+  </si>
+  <si>
+    <t>32,11%</t>
+  </si>
+  <si>
+    <t>41,63%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>49,59%</t>
+  </si>
+  <si>
+    <t>43,13%</t>
+  </si>
+  <si>
+    <t>56,71%</t>
+  </si>
+  <si>
+    <t>40,75%</t>
+  </si>
+  <si>
+    <t>35,85%</t>
+  </si>
+  <si>
+    <t>45,32%</t>
+  </si>
+  <si>
+    <t>44,8%</t>
+  </si>
+  <si>
+    <t>40,89%</t>
+  </si>
+  <si>
+    <t>48,66%</t>
+  </si>
+  <si>
+    <t>31,55%</t>
+  </si>
+  <si>
+    <t>26,39%</t>
+  </si>
+  <si>
+    <t>37,94%</t>
+  </si>
+  <si>
+    <t>47,8%</t>
+  </si>
+  <si>
+    <t>43,11%</t>
+  </si>
+  <si>
+    <t>52,45%</t>
+  </si>
+  <si>
+    <t>40,34%</t>
+  </si>
+  <si>
+    <t>36,58%</t>
+  </si>
+  <si>
+    <t>43,86%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>45,17%</t>
+  </si>
+  <si>
+    <t>39,55%</t>
+  </si>
+  <si>
+    <t>50,44%</t>
+  </si>
+  <si>
+    <t>40,21%</t>
+  </si>
+  <si>
+    <t>35,27%</t>
+  </si>
+  <si>
+    <t>45,29%</t>
+  </si>
+  <si>
+    <t>42,7%</t>
+  </si>
+  <si>
+    <t>38,96%</t>
+  </si>
+  <si>
+    <t>46,2%</t>
+  </si>
+  <si>
+    <t>30,36%</t>
+  </si>
+  <si>
+    <t>25,84%</t>
+  </si>
+  <si>
+    <t>35,95%</t>
+  </si>
+  <si>
+    <t>32,34%</t>
+  </si>
+  <si>
+    <t>27,89%</t>
+  </si>
+  <si>
+    <t>37,14%</t>
+  </si>
+  <si>
+    <t>31,35%</t>
+  </si>
+  <si>
+    <t>28,21%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>42,31%</t>
+  </si>
+  <si>
+    <t>38,18%</t>
+  </si>
+  <si>
+    <t>47,33%</t>
+  </si>
+  <si>
+    <t>27,97%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>33,65%</t>
+  </si>
+  <si>
+    <t>34,26%</t>
+  </si>
+  <si>
+    <t>26,25%</t>
+  </si>
+  <si>
+    <t>38,05%</t>
+  </si>
+  <si>
+    <t>39,15%</t>
+  </si>
+  <si>
+    <t>34,56%</t>
+  </si>
+  <si>
+    <t>43,71%</t>
+  </si>
+  <si>
+    <t>49,87%</t>
+  </si>
+  <si>
+    <t>40,7%</t>
+  </si>
+  <si>
+    <t>68,76%</t>
+  </si>
+  <si>
+    <t>39,64%</t>
+  </si>
+  <si>
+    <t>58,4%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>47,11%</t>
+  </si>
+  <si>
+    <t>41,75%</t>
+  </si>
+  <si>
+    <t>57,3%</t>
+  </si>
+  <si>
+    <t>34,24%</t>
+  </si>
+  <si>
+    <t>31,23%</t>
+  </si>
+  <si>
+    <t>37,95%</t>
+  </si>
+  <si>
+    <t>40,64%</t>
+  </si>
+  <si>
+    <t>37,71%</t>
+  </si>
+  <si>
+    <t>47,34%</t>
+  </si>
+  <si>
+    <t>34,69%</t>
+  </si>
+  <si>
+    <t>28,38%</t>
+  </si>
+  <si>
+    <t>38,8%</t>
+  </si>
+  <si>
+    <t>41,79%</t>
+  </si>
+  <si>
+    <t>38,57%</t>
+  </si>
+  <si>
+    <t>38,26%</t>
+  </si>
+  <si>
+    <t>34,03%</t>
+  </si>
+  <si>
+    <t>40,81%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
     <t>41,65%</t>
   </si>
   <si>
-    <t>55,14%</t>
-  </si>
-  <si>
-    <t>36,23%</t>
-  </si>
-  <si>
-    <t>29,95%</t>
-  </si>
-  <si>
-    <t>41,25%</t>
-  </si>
-  <si>
-    <t>41,4%</t>
-  </si>
-  <si>
-    <t>36,72%</t>
-  </si>
-  <si>
-    <t>45,63%</t>
-  </si>
-  <si>
-    <t>32,31%</t>
-  </si>
-  <si>
-    <t>26,33%</t>
-  </si>
-  <si>
-    <t>38,42%</t>
-  </si>
-  <si>
-    <t>39,18%</t>
-  </si>
-  <si>
-    <t>33,76%</t>
-  </si>
-  <si>
-    <t>48,39%</t>
-  </si>
-  <si>
-    <t>32,06%</t>
-  </si>
-  <si>
-    <t>41,75%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
+    <t>44,66%</t>
+  </si>
+  <si>
+    <t>30,31%</t>
+  </si>
+  <si>
+    <t>27,55%</t>
+  </si>
+  <si>
+    <t>31,94%</t>
+  </si>
+  <si>
+    <t>35,65%</t>
+  </si>
+  <si>
+    <t>37,3%</t>
+  </si>
+  <si>
+    <t>38,37%</t>
+  </si>
+  <si>
+    <t>36,06%</t>
+  </si>
+  <si>
+    <t>40,32%</t>
+  </si>
+  <si>
+    <t>43,41%</t>
+  </si>
+  <si>
+    <t>41,03%</t>
+  </si>
+  <si>
+    <t>48,95%</t>
+  </si>
+  <si>
+    <t>41,04%</t>
+  </si>
+  <si>
+    <t>39,49%</t>
+  </si>
+  <si>
+    <t>44,12%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
   </si>
   <si>
     <t>17,14%</t>
   </si>
   <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>49,59%</t>
-  </si>
-  <si>
-    <t>42,47%</t>
-  </si>
-  <si>
-    <t>55,99%</t>
-  </si>
-  <si>
-    <t>40,75%</t>
-  </si>
-  <si>
-    <t>36,03%</t>
-  </si>
-  <si>
-    <t>45,41%</t>
-  </si>
-  <si>
-    <t>44,8%</t>
-  </si>
-  <si>
-    <t>40,88%</t>
-  </si>
-  <si>
-    <t>48,58%</t>
-  </si>
-  <si>
-    <t>31,55%</t>
-  </si>
-  <si>
-    <t>26,32%</t>
-  </si>
-  <si>
-    <t>37,12%</t>
-  </si>
-  <si>
-    <t>47,8%</t>
-  </si>
-  <si>
-    <t>43,27%</t>
-  </si>
-  <si>
-    <t>52,74%</t>
-  </si>
-  <si>
-    <t>40,34%</t>
-  </si>
-  <si>
-    <t>36,79%</t>
-  </si>
-  <si>
-    <t>44,22%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>45,17%</t>
-  </si>
-  <si>
-    <t>39,49%</t>
-  </si>
-  <si>
-    <t>51,15%</t>
-  </si>
-  <si>
-    <t>40,21%</t>
-  </si>
-  <si>
-    <t>35,3%</t>
-  </si>
-  <si>
-    <t>45,51%</t>
-  </si>
-  <si>
-    <t>42,7%</t>
-  </si>
-  <si>
-    <t>38,89%</t>
-  </si>
-  <si>
-    <t>46,29%</t>
-  </si>
-  <si>
-    <t>30,36%</t>
-  </si>
-  <si>
-    <t>25,42%</t>
-  </si>
-  <si>
-    <t>35,65%</t>
-  </si>
-  <si>
-    <t>32,34%</t>
-  </si>
-  <si>
-    <t>27,99%</t>
-  </si>
-  <si>
-    <t>37,5%</t>
-  </si>
-  <si>
-    <t>31,35%</t>
-  </si>
-  <si>
-    <t>28,03%</t>
-  </si>
-  <si>
-    <t>34,66%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>42,31%</t>
-  </si>
-  <si>
-    <t>37,99%</t>
-  </si>
-  <si>
-    <t>47,07%</t>
-  </si>
-  <si>
-    <t>27,97%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>33,56%</t>
-  </si>
-  <si>
-    <t>34,26%</t>
-  </si>
-  <si>
-    <t>38,12%</t>
-  </si>
-  <si>
-    <t>39,15%</t>
-  </si>
-  <si>
-    <t>34,98%</t>
-  </si>
-  <si>
-    <t>43,26%</t>
-  </si>
-  <si>
-    <t>49,87%</t>
-  </si>
-  <si>
-    <t>40,87%</t>
-  </si>
-  <si>
-    <t>66,43%</t>
-  </si>
-  <si>
-    <t>39,71%</t>
-  </si>
-  <si>
-    <t>58,23%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>17,7%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>47,11%</t>
-  </si>
-  <si>
-    <t>42,13%</t>
-  </si>
-  <si>
-    <t>59,15%</t>
-  </si>
-  <si>
-    <t>34,24%</t>
-  </si>
-  <si>
-    <t>31,01%</t>
-  </si>
-  <si>
-    <t>40,64%</t>
-  </si>
-  <si>
-    <t>37,78%</t>
-  </si>
-  <si>
-    <t>47,24%</t>
-  </si>
-  <si>
-    <t>34,69%</t>
-  </si>
-  <si>
-    <t>27,42%</t>
-  </si>
-  <si>
-    <t>38,87%</t>
-  </si>
-  <si>
-    <t>41,79%</t>
-  </si>
-  <si>
-    <t>38,62%</t>
-  </si>
-  <si>
-    <t>44,99%</t>
-  </si>
-  <si>
-    <t>38,26%</t>
-  </si>
-  <si>
-    <t>34,56%</t>
-  </si>
-  <si>
-    <t>40,7%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>39,58%</t>
-  </si>
-  <si>
-    <t>44,94%</t>
-  </si>
-  <si>
-    <t>30,31%</t>
-  </si>
-  <si>
-    <t>27,13%</t>
-  </si>
-  <si>
-    <t>32,13%</t>
-  </si>
-  <si>
-    <t>33,65%</t>
-  </si>
-  <si>
-    <t>37,31%</t>
-  </si>
-  <si>
-    <t>38,37%</t>
-  </si>
-  <si>
-    <t>35,98%</t>
-  </si>
-  <si>
-    <t>40,31%</t>
-  </si>
-  <si>
-    <t>43,41%</t>
-  </si>
-  <si>
-    <t>41,1%</t>
-  </si>
-  <si>
-    <t>49,37%</t>
-  </si>
-  <si>
-    <t>41,04%</t>
-  </si>
-  <si>
-    <t>39,59%</t>
-  </si>
-  <si>
-    <t>44,11%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
     <t>19,75%</t>
   </si>
   <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
+    <t>20,99%</t>
   </si>
   <si>
     <t>17,91%</t>
   </si>
   <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
   </si>
   <si>
     <t>4,15%</t>
   </si>
   <si>
-    <t>3,55%</t>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
   </si>
   <si>
     <t>4,92%</t>
   </si>
   <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
+    <t>6,02%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1461,7 +1446,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05CC7BB5-0787-42EE-B520-28B41774EFAB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{686A8433-8956-4F97-8A6F-9F422E1F5FBB}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1929,7 +1914,7 @@
         <v>68</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1944,13 +1929,13 @@
         <v>43817</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H11" s="7">
         <v>93</v>
@@ -1959,13 +1944,13 @@
         <v>66049</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M11" s="7">
         <v>130</v>
@@ -1974,13 +1959,13 @@
         <v>109866</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1995,13 +1980,13 @@
         <v>14978</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H12" s="7">
         <v>43</v>
@@ -2010,13 +1995,13 @@
         <v>30289</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>55</v>
@@ -2025,13 +2010,13 @@
         <v>45267</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="P12" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2087,7 +2072,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -2099,13 +2084,13 @@
         <v>143922</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="H14" s="7">
         <v>165</v>
@@ -2114,13 +2099,13 @@
         <v>129060</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="M14" s="7">
         <v>307</v>
@@ -2129,13 +2114,13 @@
         <v>272982</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2150,13 +2135,13 @@
         <v>97575</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="H15" s="7">
         <v>184</v>
@@ -2165,13 +2150,13 @@
         <v>124667</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="L15" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="M15" s="7">
         <v>304</v>
@@ -2180,13 +2165,13 @@
         <v>222241</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q15" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2201,13 +2186,13 @@
         <v>55674</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="H16" s="7">
         <v>121</v>
@@ -2216,13 +2201,13 @@
         <v>78016</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="M16" s="7">
         <v>187</v>
@@ -2231,13 +2216,13 @@
         <v>133690</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2252,13 +2237,13 @@
         <v>24403</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="H17" s="7">
         <v>63</v>
@@ -2267,13 +2252,13 @@
         <v>37737</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="M17" s="7">
         <v>94</v>
@@ -2282,13 +2267,13 @@
         <v>62141</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2344,7 +2329,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2356,13 +2341,13 @@
         <v>153377</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="H19" s="7">
         <v>193</v>
@@ -2371,13 +2356,13 @@
         <v>153310</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M19" s="7">
         <v>318</v>
@@ -2386,13 +2371,13 @@
         <v>306686</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2407,13 +2392,13 @@
         <v>102646</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H20" s="7">
         <v>210</v>
@@ -2422,13 +2407,13 @@
         <v>165779</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M20" s="7">
         <v>317</v>
@@ -2437,13 +2422,13 @@
         <v>268425</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2458,13 +2443,13 @@
         <v>40789</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="H21" s="7">
         <v>134</v>
@@ -2473,13 +2458,13 @@
         <v>76095</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="M21" s="7">
         <v>171</v>
@@ -2488,13 +2473,13 @@
         <v>116884</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2509,13 +2494,13 @@
         <v>20878</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>153</v>
+        <v>121</v>
       </c>
       <c r="H22" s="7">
         <v>52</v>
@@ -2524,13 +2509,13 @@
         <v>27979</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="M22" s="7">
         <v>69</v>
@@ -2539,13 +2524,13 @@
         <v>48857</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2601,7 +2586,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2613,13 +2598,13 @@
         <v>34934</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="H24" s="7">
         <v>41</v>
@@ -2628,13 +2613,13 @@
         <v>23119</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="M24" s="7">
         <v>82</v>
@@ -2643,13 +2628,13 @@
         <v>58054</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2664,13 +2649,13 @@
         <v>96973</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H25" s="7">
         <v>190</v>
@@ -2679,13 +2664,13 @@
         <v>93994</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="M25" s="7">
         <v>322</v>
@@ -2694,13 +2679,13 @@
         <v>190968</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2715,13 +2700,13 @@
         <v>61695</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="H26" s="7">
         <v>250</v>
@@ -2730,13 +2715,13 @@
         <v>110267</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="M26" s="7">
         <v>351</v>
@@ -2745,13 +2730,13 @@
         <v>171962</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2766,13 +2751,13 @@
         <v>1950</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="H27" s="7">
         <v>8</v>
@@ -2781,13 +2766,13 @@
         <v>3297</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="M27" s="7">
         <v>11</v>
@@ -2796,13 +2781,13 @@
         <v>5247</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2858,7 +2843,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -2870,13 +2855,13 @@
         <v>125229</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="H29" s="7">
         <v>150</v>
@@ -2885,13 +2870,13 @@
         <v>110825</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="M29" s="7">
         <v>293</v>
@@ -2900,13 +2885,13 @@
         <v>236053</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2921,13 +2906,13 @@
         <v>84169</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="H30" s="7">
         <v>153</v>
@@ -2936,13 +2921,13 @@
         <v>89130</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="M30" s="7">
         <v>271</v>
@@ -2951,13 +2936,13 @@
         <v>173298</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>215</v>
+        <v>90</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2972,13 +2957,13 @@
         <v>48766</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="H31" s="7">
         <v>88</v>
@@ -2987,13 +2972,13 @@
         <v>46094</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>220</v>
+        <v>147</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="M31" s="7">
         <v>167</v>
@@ -3002,13 +2987,13 @@
         <v>94860</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3023,13 +3008,13 @@
         <v>19059</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>227</v>
+        <v>116</v>
       </c>
       <c r="H32" s="7">
         <v>69</v>
@@ -3038,13 +3023,13 @@
         <v>29574</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="M32" s="7">
         <v>100</v>
@@ -3053,13 +3038,13 @@
         <v>48633</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3115,7 +3100,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -3127,13 +3112,13 @@
         <v>265301</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="H34" s="7">
         <v>297</v>
@@ -3142,13 +3127,13 @@
         <v>224769</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="M34" s="7">
         <v>535</v>
@@ -3157,13 +3142,13 @@
         <v>490071</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>180</v>
+        <v>236</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3178,13 +3163,13 @@
         <v>245442</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="H35" s="7">
         <v>414</v>
@@ -3193,13 +3178,13 @@
         <v>400703</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="M35" s="7">
         <v>661</v>
@@ -3208,13 +3193,13 @@
         <v>646145</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3229,13 +3214,13 @@
         <v>92844</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="H36" s="7">
         <v>172</v>
@@ -3244,13 +3229,13 @@
         <v>125307</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="M36" s="7">
         <v>263</v>
@@ -3259,13 +3244,13 @@
         <v>218151</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3280,13 +3265,13 @@
         <v>23402</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="H37" s="7">
         <v>76</v>
@@ -3295,13 +3280,13 @@
         <v>52737</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="M37" s="7">
         <v>98</v>
@@ -3310,13 +3295,13 @@
         <v>76139</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>154</v>
+        <v>263</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3372,7 +3357,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -3384,13 +3369,13 @@
         <v>404844</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="H39" s="7">
         <v>320</v>
@@ -3399,13 +3384,13 @@
         <v>297348</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>212</v>
+        <v>270</v>
       </c>
       <c r="M39" s="7">
         <v>622</v>
@@ -3414,13 +3399,13 @@
         <v>702191</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3435,13 +3420,13 @@
         <v>298093</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="H40" s="7">
         <v>468</v>
@@ -3450,13 +3435,13 @@
         <v>362957</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>282</v>
+        <v>173</v>
       </c>
       <c r="M40" s="7">
         <v>760</v>
@@ -3465,13 +3450,13 @@
         <v>661049</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3486,13 +3471,13 @@
         <v>126066</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>288</v>
+        <v>233</v>
       </c>
       <c r="H41" s="7">
         <v>215</v>
@@ -3501,13 +3486,13 @@
         <v>158171</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="M41" s="7">
         <v>350</v>
@@ -3516,13 +3501,13 @@
         <v>284237</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3537,13 +3522,13 @@
         <v>30426</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="H42" s="7">
         <v>59</v>
@@ -3552,13 +3537,13 @@
         <v>49959</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="M42" s="7">
         <v>92</v>
@@ -3567,13 +3552,13 @@
         <v>80384</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3641,13 +3626,13 @@
         <v>1407044</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>126</v>
+        <v>299</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>303</v>
+        <v>91</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="H44" s="7">
         <v>1424</v>
@@ -3656,13 +3641,13 @@
         <v>1150050</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="M44" s="7">
         <v>2613</v>
@@ -3671,13 +3656,13 @@
         <v>2557094</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>209</v>
+        <v>304</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>308</v>
+        <v>98</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3692,13 +3677,13 @@
         <v>1296029</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="H45" s="7">
         <v>2255</v>
@@ -3707,13 +3692,13 @@
         <v>1647478</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="M45" s="7">
         <v>3634</v>
@@ -3722,13 +3707,13 @@
         <v>2943507</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -3743,13 +3728,13 @@
         <v>534956</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="H46" s="7">
         <v>1261</v>
@@ -3758,13 +3743,13 @@
         <v>749599</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>323</v>
+        <v>143</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="M46" s="7">
         <v>1902</v>
@@ -3773,13 +3758,13 @@
         <v>1284555</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3794,13 +3779,13 @@
         <v>140023</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="H47" s="7">
         <v>405</v>
@@ -3809,13 +3794,13 @@
         <v>247659</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="M47" s="7">
         <v>562</v>
@@ -3824,13 +3809,13 @@
         <v>387682</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -3886,7 +3871,7 @@
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P57B5_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P57B5_2023-Provincia-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8CF6F45F-962E-490D-A642-965D092ED193}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{09E3F5A1-6B21-457B-9D23-97113FCE9692}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{CE200D04-919E-4C24-9637-0F6C1D017336}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D15F6CBF-416F-4726-BD4B-65BEE32796EF}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -1446,7 +1446,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{686A8433-8956-4F97-8A6F-9F422E1F5FBB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F1233A4-8835-4552-96A3-2DC83102EDE4}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P57B5_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P57B5_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{09E3F5A1-6B21-457B-9D23-97113FCE9692}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5CA824FC-D0C7-496C-B011-AD73FB1D1EE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D15F6CBF-416F-4726-BD4B-65BEE32796EF}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{942302AA-E579-4B9F-888A-E2E6D483CA2F}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="338">
   <si>
     <t>Población según se ha sentido rebosante de energía en 2023 (Tasa respuesta: 99,63%)</t>
   </si>
@@ -74,10 +74,10 @@
     <t>7,07%</t>
   </si>
   <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
   </si>
   <si>
     <t>0,06%</t>
@@ -92,10 +92,10 @@
     <t>3,49%</t>
   </si>
   <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
   </si>
   <si>
     <t>Buena parte del tiempo</t>
@@ -104,28 +104,28 @@
     <t>65,95%</t>
   </si>
   <si>
-    <t>59,99%</t>
-  </si>
-  <si>
-    <t>71,67%</t>
+    <t>60,08%</t>
+  </si>
+  <si>
+    <t>71,66%</t>
   </si>
   <si>
     <t>61,0%</t>
   </si>
   <si>
-    <t>56,67%</t>
-  </si>
-  <si>
-    <t>64,87%</t>
+    <t>56,63%</t>
+  </si>
+  <si>
+    <t>65,49%</t>
   </si>
   <si>
     <t>63,43%</t>
   </si>
   <si>
-    <t>59,57%</t>
-  </si>
-  <si>
-    <t>66,82%</t>
+    <t>59,71%</t>
+  </si>
+  <si>
+    <t>67,4%</t>
   </si>
   <si>
     <t>En algún momento</t>
@@ -134,28 +134,28 @@
     <t>25,09%</t>
   </si>
   <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>30,75%</t>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>30,19%</t>
   </si>
   <si>
     <t>33,01%</t>
   </si>
   <si>
-    <t>29,11%</t>
-  </si>
-  <si>
-    <t>37,37%</t>
+    <t>28,72%</t>
+  </si>
+  <si>
+    <t>37,47%</t>
   </si>
   <si>
     <t>29,13%</t>
   </si>
   <si>
-    <t>26,09%</t>
-  </si>
-  <si>
-    <t>32,9%</t>
+    <t>25,58%</t>
+  </si>
+  <si>
+    <t>32,28%</t>
   </si>
   <si>
     <t>En ningún momento o en casi ningún momento</t>
@@ -164,874 +164,889 @@
     <t>1,89%</t>
   </si>
   <si>
-    <t>0,79%</t>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>50,27%</t>
+  </si>
+  <si>
+    <t>44,85%</t>
+  </si>
+  <si>
+    <t>55,67%</t>
+  </si>
+  <si>
+    <t>38,27%</t>
+  </si>
+  <si>
+    <t>34,54%</t>
+  </si>
+  <si>
+    <t>42,18%</t>
+  </si>
+  <si>
+    <t>44,09%</t>
+  </si>
+  <si>
+    <t>40,91%</t>
+  </si>
+  <si>
+    <t>47,82%</t>
+  </si>
+  <si>
+    <t>38,41%</t>
+  </si>
+  <si>
+    <t>33,03%</t>
+  </si>
+  <si>
+    <t>43,6%</t>
+  </si>
+  <si>
+    <t>44,29%</t>
+  </si>
+  <si>
+    <t>40,48%</t>
+  </si>
+  <si>
+    <t>48,43%</t>
+  </si>
+  <si>
+    <t>41,44%</t>
+  </si>
+  <si>
+    <t>37,96%</t>
+  </si>
+  <si>
+    <t>44,7%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>44,76%</t>
+  </si>
+  <si>
+    <t>38,19%</t>
+  </si>
+  <si>
+    <t>49,84%</t>
+  </si>
+  <si>
+    <t>34,93%</t>
+  </si>
+  <si>
+    <t>30,37%</t>
+  </si>
+  <si>
+    <t>39,57%</t>
+  </si>
+  <si>
+    <t>39,5%</t>
+  </si>
+  <si>
+    <t>36,02%</t>
+  </si>
+  <si>
+    <t>43,22%</t>
+  </si>
+  <si>
+    <t>30,34%</t>
+  </si>
+  <si>
+    <t>25,91%</t>
+  </si>
+  <si>
+    <t>35,51%</t>
+  </si>
+  <si>
+    <t>33,74%</t>
+  </si>
+  <si>
+    <t>29,33%</t>
+  </si>
+  <si>
+    <t>38,14%</t>
+  </si>
+  <si>
+    <t>32,16%</t>
+  </si>
+  <si>
+    <t>29,04%</t>
+  </si>
+  <si>
+    <t>35,38%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>24,93%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>22,17%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>48,28%</t>
+  </si>
+  <si>
+    <t>41,65%</t>
+  </si>
+  <si>
+    <t>55,14%</t>
+  </si>
+  <si>
+    <t>36,23%</t>
+  </si>
+  <si>
+    <t>29,95%</t>
+  </si>
+  <si>
+    <t>41,25%</t>
+  </si>
+  <si>
+    <t>41,4%</t>
+  </si>
+  <si>
+    <t>36,72%</t>
+  </si>
+  <si>
+    <t>45,63%</t>
+  </si>
+  <si>
+    <t>32,31%</t>
+  </si>
+  <si>
+    <t>26,33%</t>
+  </si>
+  <si>
+    <t>38,42%</t>
+  </si>
+  <si>
+    <t>39,18%</t>
+  </si>
+  <si>
+    <t>33,76%</t>
+  </si>
+  <si>
+    <t>48,39%</t>
+  </si>
+  <si>
+    <t>32,06%</t>
+  </si>
+  <si>
+    <t>41,75%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>49,59%</t>
+  </si>
+  <si>
+    <t>42,47%</t>
+  </si>
+  <si>
+    <t>55,99%</t>
+  </si>
+  <si>
+    <t>40,75%</t>
+  </si>
+  <si>
+    <t>36,03%</t>
+  </si>
+  <si>
+    <t>45,41%</t>
+  </si>
+  <si>
+    <t>44,8%</t>
+  </si>
+  <si>
+    <t>40,88%</t>
+  </si>
+  <si>
+    <t>48,58%</t>
+  </si>
+  <si>
+    <t>31,55%</t>
+  </si>
+  <si>
+    <t>26,32%</t>
+  </si>
+  <si>
+    <t>37,12%</t>
+  </si>
+  <si>
+    <t>47,8%</t>
+  </si>
+  <si>
+    <t>43,27%</t>
+  </si>
+  <si>
+    <t>52,74%</t>
+  </si>
+  <si>
+    <t>40,34%</t>
+  </si>
+  <si>
+    <t>36,79%</t>
+  </si>
+  <si>
+    <t>44,22%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>45,17%</t>
+  </si>
+  <si>
+    <t>39,49%</t>
+  </si>
+  <si>
+    <t>51,15%</t>
+  </si>
+  <si>
+    <t>40,21%</t>
+  </si>
+  <si>
+    <t>35,3%</t>
+  </si>
+  <si>
+    <t>45,51%</t>
+  </si>
+  <si>
+    <t>42,7%</t>
+  </si>
+  <si>
+    <t>38,89%</t>
+  </si>
+  <si>
+    <t>46,29%</t>
+  </si>
+  <si>
+    <t>30,36%</t>
+  </si>
+  <si>
+    <t>25,42%</t>
+  </si>
+  <si>
+    <t>35,65%</t>
+  </si>
+  <si>
+    <t>32,34%</t>
+  </si>
+  <si>
+    <t>27,99%</t>
+  </si>
+  <si>
+    <t>37,5%</t>
+  </si>
+  <si>
+    <t>31,35%</t>
+  </si>
+  <si>
+    <t>28,03%</t>
+  </si>
+  <si>
+    <t>34,66%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>42,31%</t>
+  </si>
+  <si>
+    <t>37,99%</t>
+  </si>
+  <si>
+    <t>47,07%</t>
+  </si>
+  <si>
+    <t>27,97%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>33,56%</t>
+  </si>
+  <si>
+    <t>34,26%</t>
+  </si>
+  <si>
+    <t>38,12%</t>
+  </si>
+  <si>
+    <t>39,15%</t>
+  </si>
+  <si>
+    <t>34,98%</t>
+  </si>
+  <si>
+    <t>43,26%</t>
+  </si>
+  <si>
+    <t>49,87%</t>
+  </si>
+  <si>
+    <t>40,87%</t>
+  </si>
+  <si>
+    <t>66,43%</t>
+  </si>
+  <si>
+    <t>39,71%</t>
+  </si>
+  <si>
+    <t>58,23%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>17,7%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>47,11%</t>
+  </si>
+  <si>
+    <t>42,13%</t>
+  </si>
+  <si>
+    <t>59,15%</t>
+  </si>
+  <si>
+    <t>34,24%</t>
+  </si>
+  <si>
+    <t>31,01%</t>
+  </si>
+  <si>
+    <t>40,64%</t>
+  </si>
+  <si>
+    <t>37,78%</t>
+  </si>
+  <si>
+    <t>47,24%</t>
+  </si>
+  <si>
+    <t>34,69%</t>
+  </si>
+  <si>
+    <t>27,42%</t>
+  </si>
+  <si>
+    <t>38,87%</t>
+  </si>
+  <si>
+    <t>41,79%</t>
+  </si>
+  <si>
+    <t>38,62%</t>
+  </si>
+  <si>
+    <t>44,99%</t>
+  </si>
+  <si>
+    <t>38,26%</t>
+  </si>
+  <si>
+    <t>34,56%</t>
+  </si>
+  <si>
+    <t>40,7%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>20,69%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
   </si>
   <si>
     <t>3,6%</t>
   </si>
   <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>50,27%</t>
-  </si>
-  <si>
-    <t>44,52%</t>
-  </si>
-  <si>
-    <t>55,57%</t>
-  </si>
-  <si>
-    <t>38,27%</t>
-  </si>
-  <si>
-    <t>34,43%</t>
-  </si>
-  <si>
-    <t>42,06%</t>
-  </si>
-  <si>
-    <t>44,09%</t>
-  </si>
-  <si>
-    <t>40,76%</t>
-  </si>
-  <si>
-    <t>47,37%</t>
-  </si>
-  <si>
-    <t>38,41%</t>
-  </si>
-  <si>
-    <t>33,28%</t>
-  </si>
-  <si>
-    <t>43,96%</t>
-  </si>
-  <si>
-    <t>44,29%</t>
-  </si>
-  <si>
-    <t>40,37%</t>
-  </si>
-  <si>
-    <t>48,45%</t>
-  </si>
-  <si>
-    <t>41,44%</t>
-  </si>
-  <si>
-    <t>38,35%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>44,76%</t>
-  </si>
-  <si>
-    <t>39,4%</t>
-  </si>
-  <si>
-    <t>50,43%</t>
-  </si>
-  <si>
-    <t>34,93%</t>
-  </si>
-  <si>
-    <t>39,52%</t>
-  </si>
-  <si>
-    <t>39,5%</t>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>39,58%</t>
+  </si>
+  <si>
+    <t>44,94%</t>
+  </si>
+  <si>
+    <t>30,31%</t>
+  </si>
+  <si>
+    <t>27,13%</t>
+  </si>
+  <si>
+    <t>32,13%</t>
+  </si>
+  <si>
+    <t>33,65%</t>
+  </si>
+  <si>
+    <t>37,31%</t>
+  </si>
+  <si>
+    <t>38,37%</t>
   </si>
   <si>
     <t>35,98%</t>
   </si>
   <si>
-    <t>42,97%</t>
-  </si>
-  <si>
-    <t>30,34%</t>
-  </si>
-  <si>
-    <t>25,8%</t>
-  </si>
-  <si>
-    <t>35,51%</t>
-  </si>
-  <si>
-    <t>33,74%</t>
-  </si>
-  <si>
-    <t>29,3%</t>
-  </si>
-  <si>
-    <t>37,87%</t>
-  </si>
-  <si>
-    <t>32,16%</t>
-  </si>
-  <si>
-    <t>29,08%</t>
-  </si>
-  <si>
-    <t>35,56%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>25,15%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>48,28%</t>
-  </si>
-  <si>
-    <t>41,73%</t>
-  </si>
-  <si>
-    <t>55,79%</t>
-  </si>
-  <si>
-    <t>36,23%</t>
-  </si>
-  <si>
-    <t>30,35%</t>
-  </si>
-  <si>
-    <t>41,57%</t>
-  </si>
-  <si>
-    <t>41,4%</t>
-  </si>
-  <si>
-    <t>36,74%</t>
-  </si>
-  <si>
-    <t>45,95%</t>
-  </si>
-  <si>
-    <t>32,31%</t>
-  </si>
-  <si>
-    <t>25,82%</t>
-  </si>
-  <si>
-    <t>38,7%</t>
-  </si>
-  <si>
-    <t>39,18%</t>
-  </si>
-  <si>
-    <t>33,48%</t>
-  </si>
-  <si>
-    <t>47,69%</t>
-  </si>
-  <si>
-    <t>32,11%</t>
-  </si>
-  <si>
-    <t>41,63%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>49,59%</t>
-  </si>
-  <si>
-    <t>43,13%</t>
-  </si>
-  <si>
-    <t>56,71%</t>
-  </si>
-  <si>
-    <t>40,75%</t>
-  </si>
-  <si>
-    <t>35,85%</t>
-  </si>
-  <si>
-    <t>45,32%</t>
-  </si>
-  <si>
-    <t>44,8%</t>
-  </si>
-  <si>
-    <t>40,89%</t>
-  </si>
-  <si>
-    <t>48,66%</t>
-  </si>
-  <si>
-    <t>31,55%</t>
-  </si>
-  <si>
-    <t>26,39%</t>
-  </si>
-  <si>
-    <t>37,94%</t>
-  </si>
-  <si>
-    <t>47,8%</t>
-  </si>
-  <si>
-    <t>43,11%</t>
-  </si>
-  <si>
-    <t>52,45%</t>
-  </si>
-  <si>
-    <t>40,34%</t>
-  </si>
-  <si>
-    <t>36,58%</t>
-  </si>
-  <si>
-    <t>43,86%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>45,17%</t>
-  </si>
-  <si>
-    <t>39,55%</t>
-  </si>
-  <si>
-    <t>50,44%</t>
-  </si>
-  <si>
-    <t>40,21%</t>
-  </si>
-  <si>
-    <t>35,27%</t>
-  </si>
-  <si>
-    <t>45,29%</t>
-  </si>
-  <si>
-    <t>42,7%</t>
-  </si>
-  <si>
-    <t>38,96%</t>
-  </si>
-  <si>
-    <t>46,2%</t>
-  </si>
-  <si>
-    <t>30,36%</t>
-  </si>
-  <si>
-    <t>25,84%</t>
-  </si>
-  <si>
-    <t>35,95%</t>
-  </si>
-  <si>
-    <t>32,34%</t>
-  </si>
-  <si>
-    <t>27,89%</t>
-  </si>
-  <si>
-    <t>37,14%</t>
-  </si>
-  <si>
-    <t>31,35%</t>
-  </si>
-  <si>
-    <t>28,21%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>42,31%</t>
-  </si>
-  <si>
-    <t>38,18%</t>
-  </si>
-  <si>
-    <t>47,33%</t>
-  </si>
-  <si>
-    <t>27,97%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>33,65%</t>
-  </si>
-  <si>
-    <t>34,26%</t>
-  </si>
-  <si>
-    <t>26,25%</t>
-  </si>
-  <si>
-    <t>38,05%</t>
-  </si>
-  <si>
-    <t>39,15%</t>
-  </si>
-  <si>
-    <t>34,56%</t>
-  </si>
-  <si>
-    <t>43,71%</t>
-  </si>
-  <si>
-    <t>49,87%</t>
-  </si>
-  <si>
-    <t>40,7%</t>
-  </si>
-  <si>
-    <t>68,76%</t>
-  </si>
-  <si>
-    <t>39,64%</t>
-  </si>
-  <si>
-    <t>58,4%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>47,11%</t>
-  </si>
-  <si>
-    <t>41,75%</t>
-  </si>
-  <si>
-    <t>57,3%</t>
-  </si>
-  <si>
-    <t>34,24%</t>
-  </si>
-  <si>
-    <t>31,23%</t>
-  </si>
-  <si>
-    <t>37,95%</t>
-  </si>
-  <si>
-    <t>40,64%</t>
-  </si>
-  <si>
-    <t>37,71%</t>
-  </si>
-  <si>
-    <t>47,34%</t>
-  </si>
-  <si>
-    <t>34,69%</t>
-  </si>
-  <si>
-    <t>28,38%</t>
-  </si>
-  <si>
-    <t>38,8%</t>
-  </si>
-  <si>
-    <t>41,79%</t>
-  </si>
-  <si>
-    <t>38,57%</t>
-  </si>
-  <si>
-    <t>38,26%</t>
-  </si>
-  <si>
-    <t>34,03%</t>
-  </si>
-  <si>
-    <t>40,81%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>41,65%</t>
-  </si>
-  <si>
-    <t>44,66%</t>
-  </si>
-  <si>
-    <t>30,31%</t>
-  </si>
-  <si>
-    <t>27,55%</t>
-  </si>
-  <si>
-    <t>31,94%</t>
-  </si>
-  <si>
-    <t>35,65%</t>
-  </si>
-  <si>
-    <t>37,3%</t>
-  </si>
-  <si>
-    <t>38,37%</t>
-  </si>
-  <si>
-    <t>36,06%</t>
-  </si>
-  <si>
-    <t>40,32%</t>
+    <t>40,31%</t>
   </si>
   <si>
     <t>43,41%</t>
   </si>
   <si>
-    <t>41,03%</t>
-  </si>
-  <si>
-    <t>48,95%</t>
+    <t>41,1%</t>
+  </si>
+  <si>
+    <t>49,37%</t>
   </si>
   <si>
     <t>41,04%</t>
   </si>
   <si>
-    <t>39,49%</t>
-  </si>
-  <si>
-    <t>44,12%</t>
+    <t>39,59%</t>
+  </si>
+  <si>
+    <t>44,11%</t>
   </si>
   <si>
     <t>15,84%</t>
   </si>
   <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
   </si>
   <si>
     <t>19,75%</t>
   </si>
   <si>
-    <t>20,99%</t>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
   </si>
   <si>
     <t>17,91%</t>
   </si>
   <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
   </si>
   <si>
     <t>4,15%</t>
   </si>
   <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
   </si>
   <si>
     <t>6,53%</t>
   </si>
   <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
   </si>
   <si>
     <t>5,4%</t>
   </si>
   <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1446,7 +1461,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F1233A4-8835-4552-96A3-2DC83102EDE4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB4621D3-A6CC-45AE-87D7-B94B11850FCA}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1914,7 +1929,7 @@
         <v>68</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1929,13 +1944,13 @@
         <v>43817</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H11" s="7">
         <v>93</v>
@@ -1944,13 +1959,13 @@
         <v>66049</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M11" s="7">
         <v>130</v>
@@ -1959,13 +1974,13 @@
         <v>109866</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1980,13 +1995,13 @@
         <v>14978</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H12" s="7">
         <v>43</v>
@@ -1995,13 +2010,13 @@
         <v>30289</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>55</v>
@@ -2010,13 +2025,13 @@
         <v>45267</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>83</v>
+        <v>45</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2072,7 +2087,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -2084,13 +2099,13 @@
         <v>143922</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H14" s="7">
         <v>165</v>
@@ -2099,13 +2114,13 @@
         <v>129060</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>33</v>
+        <v>92</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="M14" s="7">
         <v>307</v>
@@ -2114,13 +2129,13 @@
         <v>272982</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2135,13 +2150,13 @@
         <v>97575</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H15" s="7">
         <v>184</v>
@@ -2150,13 +2165,13 @@
         <v>124667</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M15" s="7">
         <v>304</v>
@@ -2165,13 +2180,13 @@
         <v>222241</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2186,13 +2201,13 @@
         <v>55674</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H16" s="7">
         <v>121</v>
@@ -2201,13 +2216,13 @@
         <v>78016</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M16" s="7">
         <v>187</v>
@@ -2216,13 +2231,13 @@
         <v>133690</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2237,13 +2252,13 @@
         <v>24403</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H17" s="7">
         <v>63</v>
@@ -2252,13 +2267,13 @@
         <v>37737</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M17" s="7">
         <v>94</v>
@@ -2267,13 +2282,13 @@
         <v>62141</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2329,7 +2344,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2341,13 +2356,13 @@
         <v>153377</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H19" s="7">
         <v>193</v>
@@ -2356,13 +2371,13 @@
         <v>153310</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M19" s="7">
         <v>318</v>
@@ -2371,13 +2386,13 @@
         <v>306686</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2392,13 +2407,13 @@
         <v>102646</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H20" s="7">
         <v>210</v>
@@ -2407,13 +2422,13 @@
         <v>165779</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M20" s="7">
         <v>317</v>
@@ -2422,13 +2437,13 @@
         <v>268425</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2443,13 +2458,13 @@
         <v>40789</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H21" s="7">
         <v>134</v>
@@ -2458,13 +2473,13 @@
         <v>76095</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="M21" s="7">
         <v>171</v>
@@ -2473,13 +2488,13 @@
         <v>116884</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2494,13 +2509,13 @@
         <v>20878</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>121</v>
+        <v>153</v>
       </c>
       <c r="H22" s="7">
         <v>52</v>
@@ -2509,13 +2524,13 @@
         <v>27979</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="M22" s="7">
         <v>69</v>
@@ -2524,13 +2539,13 @@
         <v>48857</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2586,7 +2601,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2598,13 +2613,13 @@
         <v>34934</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="H24" s="7">
         <v>41</v>
@@ -2613,13 +2628,13 @@
         <v>23119</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="M24" s="7">
         <v>82</v>
@@ -2628,13 +2643,13 @@
         <v>58054</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2649,13 +2664,13 @@
         <v>96973</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="H25" s="7">
         <v>190</v>
@@ -2664,13 +2679,13 @@
         <v>93994</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="M25" s="7">
         <v>322</v>
@@ -2679,13 +2694,13 @@
         <v>190968</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2700,13 +2715,13 @@
         <v>61695</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="H26" s="7">
         <v>250</v>
@@ -2715,13 +2730,13 @@
         <v>110267</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="M26" s="7">
         <v>351</v>
@@ -2730,13 +2745,13 @@
         <v>171962</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2751,13 +2766,13 @@
         <v>1950</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="H27" s="7">
         <v>8</v>
@@ -2766,13 +2781,13 @@
         <v>3297</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="M27" s="7">
         <v>11</v>
@@ -2781,13 +2796,13 @@
         <v>5247</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2843,7 +2858,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -2855,13 +2870,13 @@
         <v>125229</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="H29" s="7">
         <v>150</v>
@@ -2870,13 +2885,13 @@
         <v>110825</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="M29" s="7">
         <v>293</v>
@@ -2885,13 +2900,13 @@
         <v>236053</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2906,13 +2921,13 @@
         <v>84169</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="H30" s="7">
         <v>153</v>
@@ -2921,13 +2936,13 @@
         <v>89130</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="M30" s="7">
         <v>271</v>
@@ -2936,13 +2951,13 @@
         <v>173298</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>90</v>
+        <v>215</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2957,13 +2972,13 @@
         <v>48766</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="H31" s="7">
         <v>88</v>
@@ -2972,13 +2987,13 @@
         <v>46094</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>147</v>
+        <v>220</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="M31" s="7">
         <v>167</v>
@@ -2987,13 +3002,13 @@
         <v>94860</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3008,13 +3023,13 @@
         <v>19059</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>116</v>
+        <v>227</v>
       </c>
       <c r="H32" s="7">
         <v>69</v>
@@ -3023,13 +3038,13 @@
         <v>29574</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="M32" s="7">
         <v>100</v>
@@ -3038,13 +3053,13 @@
         <v>48633</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3100,7 +3115,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -3112,13 +3127,13 @@
         <v>265301</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="H34" s="7">
         <v>297</v>
@@ -3127,13 +3142,13 @@
         <v>224769</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="M34" s="7">
         <v>535</v>
@@ -3142,13 +3157,13 @@
         <v>490071</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>236</v>
+        <v>180</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3163,13 +3178,13 @@
         <v>245442</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="H35" s="7">
         <v>414</v>
@@ -3178,13 +3193,13 @@
         <v>400703</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="M35" s="7">
         <v>661</v>
@@ -3193,13 +3208,13 @@
         <v>646145</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3214,13 +3229,13 @@
         <v>92844</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="H36" s="7">
         <v>172</v>
@@ -3229,13 +3244,13 @@
         <v>125307</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="M36" s="7">
         <v>263</v>
@@ -3244,13 +3259,13 @@
         <v>218151</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3265,13 +3280,13 @@
         <v>23402</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="H37" s="7">
         <v>76</v>
@@ -3280,13 +3295,13 @@
         <v>52737</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="M37" s="7">
         <v>98</v>
@@ -3295,13 +3310,13 @@
         <v>76139</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>263</v>
+        <v>154</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3357,7 +3372,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -3369,13 +3384,13 @@
         <v>404844</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="H39" s="7">
         <v>320</v>
@@ -3384,13 +3399,13 @@
         <v>297348</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>270</v>
+        <v>212</v>
       </c>
       <c r="M39" s="7">
         <v>622</v>
@@ -3399,13 +3414,13 @@
         <v>702191</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3420,13 +3435,13 @@
         <v>298093</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="H40" s="7">
         <v>468</v>
@@ -3435,13 +3450,13 @@
         <v>362957</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>173</v>
+        <v>282</v>
       </c>
       <c r="M40" s="7">
         <v>760</v>
@@ -3450,13 +3465,13 @@
         <v>661049</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3471,13 +3486,13 @@
         <v>126066</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>233</v>
+        <v>288</v>
       </c>
       <c r="H41" s="7">
         <v>215</v>
@@ -3486,13 +3501,13 @@
         <v>158171</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="M41" s="7">
         <v>350</v>
@@ -3501,13 +3516,13 @@
         <v>284237</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3522,13 +3537,13 @@
         <v>30426</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="H42" s="7">
         <v>59</v>
@@ -3537,13 +3552,13 @@
         <v>49959</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="M42" s="7">
         <v>92</v>
@@ -3552,13 +3567,13 @@
         <v>80384</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3626,13 +3641,13 @@
         <v>1407044</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>299</v>
+        <v>126</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>91</v>
+        <v>303</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="H44" s="7">
         <v>1424</v>
@@ -3641,13 +3656,13 @@
         <v>1150050</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="M44" s="7">
         <v>2613</v>
@@ -3656,13 +3671,13 @@
         <v>2557094</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>304</v>
+        <v>209</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>98</v>
+        <v>308</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3677,13 +3692,13 @@
         <v>1296029</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="H45" s="7">
         <v>2255</v>
@@ -3692,13 +3707,13 @@
         <v>1647478</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="M45" s="7">
         <v>3634</v>
@@ -3707,13 +3722,13 @@
         <v>2943507</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -3728,13 +3743,13 @@
         <v>534956</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="H46" s="7">
         <v>1261</v>
@@ -3743,13 +3758,13 @@
         <v>749599</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>143</v>
+        <v>323</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="M46" s="7">
         <v>1902</v>
@@ -3758,13 +3773,13 @@
         <v>1284555</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3779,13 +3794,13 @@
         <v>140023</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="H47" s="7">
         <v>405</v>
@@ -3794,13 +3809,13 @@
         <v>247659</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="M47" s="7">
         <v>562</v>
@@ -3809,13 +3824,13 @@
         <v>387682</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -3871,7 +3886,7 @@
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P57B5_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P57B5_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5CA824FC-D0C7-496C-B011-AD73FB1D1EE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EDC33792-A3E1-4C3D-B711-3CA8C4466AFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{942302AA-E579-4B9F-888A-E2E6D483CA2F}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{06C850A5-062D-47BF-B704-DC4F3F39F16B}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="341">
   <si>
     <t>Población según se ha sentido rebosante de energía en 2023 (Tasa respuesta: 99,63%)</t>
   </si>
@@ -71,13 +71,13 @@
     <t>Todo o casi todo el tiempo</t>
   </si>
   <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
   </si>
   <si>
     <t>0,06%</t>
@@ -86,967 +86,976 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>Buena parte del tiempo</t>
+  </si>
+  <si>
+    <t>66,35%</t>
+  </si>
+  <si>
+    <t>59,4%</t>
+  </si>
+  <si>
+    <t>72,54%</t>
+  </si>
+  <si>
+    <t>61,68%</t>
+  </si>
+  <si>
+    <t>57,15%</t>
+  </si>
+  <si>
+    <t>66,41%</t>
+  </si>
+  <si>
+    <t>64,1%</t>
+  </si>
+  <si>
+    <t>60,14%</t>
+  </si>
+  <si>
+    <t>68,61%</t>
+  </si>
+  <si>
+    <t>En algún momento</t>
+  </si>
+  <si>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>28,85%</t>
+  </si>
+  <si>
+    <t>32,55%</t>
+  </si>
+  <si>
+    <t>27,97%</t>
+  </si>
+  <si>
+    <t>37,16%</t>
+  </si>
+  <si>
+    <t>27,88%</t>
+  </si>
+  <si>
+    <t>24,33%</t>
+  </si>
+  <si>
+    <t>31,32%</t>
+  </si>
+  <si>
+    <t>En ningún momento o en casi ningún momento</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
   </si>
   <si>
     <t>5,72%</t>
   </si>
   <si>
-    <t>Buena parte del tiempo</t>
-  </si>
-  <si>
-    <t>65,95%</t>
-  </si>
-  <si>
-    <t>60,08%</t>
-  </si>
-  <si>
-    <t>71,66%</t>
-  </si>
-  <si>
-    <t>61,0%</t>
-  </si>
-  <si>
-    <t>56,63%</t>
-  </si>
-  <si>
-    <t>65,49%</t>
-  </si>
-  <si>
-    <t>63,43%</t>
-  </si>
-  <si>
-    <t>59,71%</t>
-  </si>
-  <si>
-    <t>67,4%</t>
-  </si>
-  <si>
-    <t>En algún momento</t>
-  </si>
-  <si>
-    <t>25,09%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>30,19%</t>
-  </si>
-  <si>
-    <t>33,01%</t>
-  </si>
-  <si>
-    <t>28,72%</t>
-  </si>
-  <si>
-    <t>37,47%</t>
-  </si>
-  <si>
-    <t>29,13%</t>
-  </si>
-  <si>
-    <t>25,58%</t>
-  </si>
-  <si>
-    <t>32,28%</t>
-  </si>
-  <si>
-    <t>En ningún momento o en casi ningún momento</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>50,98%</t>
+  </si>
+  <si>
+    <t>45,26%</t>
+  </si>
+  <si>
+    <t>56,55%</t>
+  </si>
+  <si>
+    <t>38,32%</t>
+  </si>
+  <si>
+    <t>34,64%</t>
+  </si>
+  <si>
+    <t>42,22%</t>
+  </si>
+  <si>
+    <t>44,68%</t>
+  </si>
+  <si>
+    <t>41,47%</t>
+  </si>
+  <si>
+    <t>48,65%</t>
+  </si>
+  <si>
+    <t>37,93%</t>
+  </si>
+  <si>
+    <t>32,46%</t>
+  </si>
+  <si>
+    <t>43,32%</t>
+  </si>
+  <si>
+    <t>44,35%</t>
+  </si>
+  <si>
+    <t>40,59%</t>
+  </si>
+  <si>
+    <t>48,63%</t>
+  </si>
+  <si>
+    <t>41,12%</t>
+  </si>
+  <si>
+    <t>37,57%</t>
+  </si>
+  <si>
+    <t>44,49%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
   </si>
   <si>
     <t>5,23%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>50,27%</t>
-  </si>
-  <si>
-    <t>44,85%</t>
-  </si>
-  <si>
-    <t>55,67%</t>
-  </si>
-  <si>
-    <t>38,27%</t>
-  </si>
-  <si>
-    <t>34,54%</t>
-  </si>
-  <si>
-    <t>42,18%</t>
-  </si>
-  <si>
-    <t>44,09%</t>
-  </si>
-  <si>
-    <t>40,91%</t>
-  </si>
-  <si>
-    <t>47,82%</t>
-  </si>
-  <si>
-    <t>38,41%</t>
-  </si>
-  <si>
-    <t>33,03%</t>
-  </si>
-  <si>
-    <t>43,6%</t>
-  </si>
-  <si>
-    <t>44,29%</t>
-  </si>
-  <si>
-    <t>40,48%</t>
-  </si>
-  <si>
-    <t>48,43%</t>
-  </si>
-  <si>
-    <t>41,44%</t>
-  </si>
-  <si>
-    <t>37,96%</t>
-  </si>
-  <si>
-    <t>44,7%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>45,52%</t>
+  </si>
+  <si>
+    <t>38,9%</t>
+  </si>
+  <si>
+    <t>50,77%</t>
+  </si>
+  <si>
+    <t>35,11%</t>
+  </si>
+  <si>
+    <t>30,47%</t>
+  </si>
+  <si>
+    <t>39,74%</t>
+  </si>
+  <si>
+    <t>40,08%</t>
+  </si>
+  <si>
+    <t>36,56%</t>
+  </si>
+  <si>
+    <t>43,85%</t>
+  </si>
+  <si>
+    <t>29,94%</t>
+  </si>
+  <si>
+    <t>25,51%</t>
+  </si>
+  <si>
+    <t>35,13%</t>
+  </si>
+  <si>
+    <t>33,75%</t>
+  </si>
+  <si>
+    <t>29,38%</t>
+  </si>
+  <si>
+    <t>38,39%</t>
+  </si>
+  <si>
+    <t>31,93%</t>
+  </si>
+  <si>
+    <t>28,81%</t>
+  </si>
+  <si>
+    <t>35,22%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>24,77%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
   </si>
   <si>
     <t>5,19%</t>
   </si>
   <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>44,76%</t>
-  </si>
-  <si>
-    <t>38,19%</t>
-  </si>
-  <si>
-    <t>49,84%</t>
-  </si>
-  <si>
-    <t>34,93%</t>
-  </si>
-  <si>
-    <t>30,37%</t>
-  </si>
-  <si>
-    <t>39,57%</t>
-  </si>
-  <si>
-    <t>39,5%</t>
-  </si>
-  <si>
-    <t>36,02%</t>
-  </si>
-  <si>
-    <t>43,22%</t>
-  </si>
-  <si>
-    <t>30,34%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>35,51%</t>
-  </si>
-  <si>
-    <t>33,74%</t>
-  </si>
-  <si>
-    <t>29,33%</t>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>48,79%</t>
+  </si>
+  <si>
+    <t>41,73%</t>
+  </si>
+  <si>
+    <t>55,93%</t>
+  </si>
+  <si>
+    <t>29,96%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
   </si>
   <si>
     <t>38,14%</t>
   </si>
   <si>
-    <t>32,16%</t>
-  </si>
-  <si>
-    <t>29,04%</t>
-  </si>
-  <si>
-    <t>35,38%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>22,17%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>48,28%</t>
+    <t>37,41%</t>
+  </si>
+  <si>
+    <t>26,6%</t>
+  </si>
+  <si>
+    <t>43,41%</t>
+  </si>
+  <si>
+    <t>32,09%</t>
+  </si>
+  <si>
+    <t>26,1%</t>
+  </si>
+  <si>
+    <t>38,46%</t>
+  </si>
+  <si>
+    <t>49,4%</t>
+  </si>
+  <si>
+    <t>36,51%</t>
+  </si>
+  <si>
+    <t>71,5%</t>
+  </si>
+  <si>
+    <t>42,55%</t>
+  </si>
+  <si>
+    <t>34,38%</t>
+  </si>
+  <si>
+    <t>58,11%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>23,9%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>49,65%</t>
+  </si>
+  <si>
+    <t>42,39%</t>
+  </si>
+  <si>
+    <t>55,97%</t>
+  </si>
+  <si>
+    <t>36,06%</t>
+  </si>
+  <si>
+    <t>45,11%</t>
+  </si>
+  <si>
+    <t>44,77%</t>
+  </si>
+  <si>
+    <t>40,85%</t>
+  </si>
+  <si>
+    <t>48,51%</t>
+  </si>
+  <si>
+    <t>31,8%</t>
+  </si>
+  <si>
+    <t>26,54%</t>
+  </si>
+  <si>
+    <t>37,34%</t>
+  </si>
+  <si>
+    <t>48,26%</t>
+  </si>
+  <si>
+    <t>43,9%</t>
+  </si>
+  <si>
+    <t>53,19%</t>
+  </si>
+  <si>
+    <t>40,67%</t>
+  </si>
+  <si>
+    <t>37,14%</t>
+  </si>
+  <si>
+    <t>44,53%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>45,66%</t>
+  </si>
+  <si>
+    <t>39,94%</t>
+  </si>
+  <si>
+    <t>51,69%</t>
+  </si>
+  <si>
+    <t>40,26%</t>
+  </si>
+  <si>
+    <t>35,36%</t>
+  </si>
+  <si>
+    <t>45,55%</t>
+  </si>
+  <si>
+    <t>43,03%</t>
+  </si>
+  <si>
+    <t>39,13%</t>
+  </si>
+  <si>
+    <t>46,71%</t>
+  </si>
+  <si>
+    <t>30,31%</t>
+  </si>
+  <si>
+    <t>25,34%</t>
+  </si>
+  <si>
+    <t>35,71%</t>
+  </si>
+  <si>
+    <t>32,27%</t>
+  </si>
+  <si>
+    <t>27,93%</t>
+  </si>
+  <si>
+    <t>37,42%</t>
+  </si>
+  <si>
+    <t>31,27%</t>
+  </si>
+  <si>
+    <t>27,9%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>43,17%</t>
+  </si>
+  <si>
+    <t>38,61%</t>
+  </si>
+  <si>
+    <t>48,37%</t>
+  </si>
+  <si>
+    <t>24,69%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>33,56%</t>
+  </si>
+  <si>
+    <t>32,52%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>38,71%</t>
+  </si>
+  <si>
+    <t>38,67%</t>
+  </si>
+  <si>
+    <t>34,4%</t>
+  </si>
+  <si>
+    <t>43,01%</t>
+  </si>
+  <si>
+    <t>55,87%</t>
+  </si>
+  <si>
+    <t>40,74%</t>
+  </si>
+  <si>
+    <t>76,31%</t>
+  </si>
+  <si>
+    <t>48,59%</t>
+  </si>
+  <si>
+    <t>39,48%</t>
+  </si>
+  <si>
+    <t>67,14%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>58,43%</t>
+  </si>
+  <si>
+    <t>42,43%</t>
+  </si>
+  <si>
+    <t>80,79%</t>
+  </si>
+  <si>
+    <t>33,93%</t>
+  </si>
+  <si>
+    <t>30,75%</t>
+  </si>
+  <si>
+    <t>36,97%</t>
+  </si>
+  <si>
+    <t>47,75%</t>
+  </si>
+  <si>
+    <t>37,9%</t>
+  </si>
+  <si>
+    <t>67,99%</t>
+  </si>
+  <si>
+    <t>27,13%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>37,99%</t>
+  </si>
+  <si>
+    <t>42,08%</t>
+  </si>
+  <si>
+    <t>39,05%</t>
+  </si>
+  <si>
+    <t>45,19%</t>
+  </si>
+  <si>
+    <t>33,65%</t>
+  </si>
+  <si>
+    <t>20,32%</t>
+  </si>
+  <si>
+    <t>40,14%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>44,9%</t>
+  </si>
+  <si>
+    <t>40,32%</t>
+  </si>
+  <si>
+    <t>59,86%</t>
+  </si>
+  <si>
+    <t>28,38%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>30,92%</t>
+  </si>
+  <si>
+    <t>36,41%</t>
+  </si>
+  <si>
+    <t>33,15%</t>
+  </si>
+  <si>
+    <t>44,82%</t>
+  </si>
+  <si>
+    <t>36,48%</t>
+  </si>
+  <si>
+    <t>27,94%</t>
+  </si>
+  <si>
+    <t>39,93%</t>
+  </si>
+  <si>
+    <t>46,54%</t>
+  </si>
+  <si>
+    <t>42,42%</t>
+  </si>
+  <si>
+    <t>56,59%</t>
   </si>
   <si>
     <t>41,65%</t>
   </si>
   <si>
-    <t>55,14%</t>
-  </si>
-  <si>
-    <t>36,23%</t>
-  </si>
-  <si>
-    <t>29,95%</t>
-  </si>
-  <si>
-    <t>41,25%</t>
-  </si>
-  <si>
-    <t>41,4%</t>
-  </si>
-  <si>
-    <t>36,72%</t>
-  </si>
-  <si>
-    <t>45,63%</t>
-  </si>
-  <si>
-    <t>32,31%</t>
-  </si>
-  <si>
-    <t>26,33%</t>
-  </si>
-  <si>
-    <t>38,42%</t>
-  </si>
-  <si>
-    <t>39,18%</t>
-  </si>
-  <si>
-    <t>33,76%</t>
-  </si>
-  <si>
-    <t>48,39%</t>
-  </si>
-  <si>
-    <t>32,06%</t>
-  </si>
-  <si>
-    <t>41,75%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>49,59%</t>
-  </si>
-  <si>
-    <t>42,47%</t>
-  </si>
-  <si>
-    <t>55,99%</t>
-  </si>
-  <si>
-    <t>40,75%</t>
-  </si>
-  <si>
-    <t>36,03%</t>
-  </si>
-  <si>
-    <t>45,41%</t>
-  </si>
-  <si>
-    <t>44,8%</t>
-  </si>
-  <si>
-    <t>40,88%</t>
-  </si>
-  <si>
-    <t>48,58%</t>
-  </si>
-  <si>
-    <t>31,55%</t>
-  </si>
-  <si>
-    <t>26,32%</t>
-  </si>
-  <si>
-    <t>37,12%</t>
-  </si>
-  <si>
-    <t>47,8%</t>
-  </si>
-  <si>
-    <t>43,27%</t>
-  </si>
-  <si>
-    <t>52,74%</t>
-  </si>
-  <si>
-    <t>40,34%</t>
-  </si>
-  <si>
-    <t>36,79%</t>
-  </si>
-  <si>
-    <t>44,22%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>45,17%</t>
-  </si>
-  <si>
-    <t>39,49%</t>
-  </si>
-  <si>
-    <t>51,15%</t>
-  </si>
-  <si>
-    <t>40,21%</t>
-  </si>
-  <si>
-    <t>35,3%</t>
-  </si>
-  <si>
-    <t>45,51%</t>
-  </si>
-  <si>
-    <t>42,7%</t>
-  </si>
-  <si>
-    <t>38,89%</t>
-  </si>
-  <si>
-    <t>46,29%</t>
-  </si>
-  <si>
-    <t>30,36%</t>
-  </si>
-  <si>
-    <t>25,42%</t>
-  </si>
-  <si>
-    <t>35,65%</t>
-  </si>
-  <si>
-    <t>32,34%</t>
-  </si>
-  <si>
-    <t>27,99%</t>
-  </si>
-  <si>
-    <t>37,5%</t>
-  </si>
-  <si>
-    <t>31,35%</t>
-  </si>
-  <si>
-    <t>28,03%</t>
-  </si>
-  <si>
-    <t>34,66%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>42,31%</t>
-  </si>
-  <si>
-    <t>37,99%</t>
-  </si>
-  <si>
-    <t>47,07%</t>
-  </si>
-  <si>
-    <t>27,97%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>33,56%</t>
-  </si>
-  <si>
-    <t>34,26%</t>
-  </si>
-  <si>
-    <t>38,12%</t>
-  </si>
-  <si>
-    <t>39,15%</t>
-  </si>
-  <si>
-    <t>34,98%</t>
-  </si>
-  <si>
-    <t>43,26%</t>
-  </si>
-  <si>
-    <t>49,87%</t>
-  </si>
-  <si>
-    <t>40,87%</t>
-  </si>
-  <si>
-    <t>66,43%</t>
-  </si>
-  <si>
-    <t>39,71%</t>
-  </si>
-  <si>
-    <t>58,23%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>17,7%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>47,11%</t>
-  </si>
-  <si>
-    <t>42,13%</t>
-  </si>
-  <si>
-    <t>59,15%</t>
-  </si>
-  <si>
-    <t>34,24%</t>
-  </si>
-  <si>
-    <t>31,01%</t>
-  </si>
-  <si>
-    <t>40,64%</t>
-  </si>
-  <si>
     <t>37,78%</t>
   </si>
   <si>
-    <t>47,24%</t>
-  </si>
-  <si>
-    <t>34,69%</t>
-  </si>
-  <si>
-    <t>27,42%</t>
-  </si>
-  <si>
-    <t>38,87%</t>
-  </si>
-  <si>
-    <t>41,79%</t>
-  </si>
-  <si>
-    <t>38,62%</t>
-  </si>
-  <si>
-    <t>44,99%</t>
-  </si>
-  <si>
-    <t>38,26%</t>
-  </si>
-  <si>
-    <t>34,56%</t>
-  </si>
-  <si>
-    <t>40,7%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>39,58%</t>
-  </si>
-  <si>
-    <t>44,94%</t>
-  </si>
-  <si>
-    <t>30,31%</t>
-  </si>
-  <si>
-    <t>27,13%</t>
-  </si>
-  <si>
-    <t>32,13%</t>
-  </si>
-  <si>
-    <t>33,65%</t>
-  </si>
-  <si>
-    <t>37,31%</t>
-  </si>
-  <si>
-    <t>38,37%</t>
-  </si>
-  <si>
-    <t>35,98%</t>
-  </si>
-  <si>
-    <t>40,31%</t>
-  </si>
-  <si>
-    <t>43,41%</t>
-  </si>
-  <si>
-    <t>41,1%</t>
-  </si>
-  <si>
-    <t>49,37%</t>
-  </si>
-  <si>
-    <t>41,04%</t>
-  </si>
-  <si>
-    <t>39,59%</t>
-  </si>
-  <si>
-    <t>44,11%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
+    <t>46,44%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1461,7 +1470,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB4621D3-A6CC-45AE-87D7-B94B11850FCA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA5DEAA9-FA38-4AFC-82CD-38899DE5FA20}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1582,7 +1591,7 @@
         <v>16</v>
       </c>
       <c r="D4" s="7">
-        <v>18392</v>
+        <v>26204</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1597,7 +1606,7 @@
         <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1612,7 +1621,7 @@
         <v>17</v>
       </c>
       <c r="N4" s="7">
-        <v>18551</v>
+        <v>26370</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1633,7 +1642,7 @@
         <v>212</v>
       </c>
       <c r="D5" s="7">
-        <v>171674</v>
+        <v>206646</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1648,7 +1657,7 @@
         <v>314</v>
       </c>
       <c r="I5" s="7">
-        <v>165557</v>
+        <v>178633</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1663,7 +1672,7 @@
         <v>526</v>
       </c>
       <c r="N5" s="7">
-        <v>337231</v>
+        <v>385278</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1684,7 +1693,7 @@
         <v>95</v>
       </c>
       <c r="D6" s="7">
-        <v>65306</v>
+        <v>73297</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -1699,7 +1708,7 @@
         <v>188</v>
       </c>
       <c r="I6" s="7">
-        <v>89600</v>
+        <v>94275</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -1714,7 +1723,7 @@
         <v>283</v>
       </c>
       <c r="N6" s="7">
-        <v>154905</v>
+        <v>167572</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>37</v>
@@ -1735,7 +1744,7 @@
         <v>8</v>
       </c>
       <c r="D7" s="7">
-        <v>4926</v>
+        <v>5296</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>41</v>
@@ -1750,7 +1759,7 @@
         <v>35</v>
       </c>
       <c r="I7" s="7">
-        <v>16087</v>
+        <v>16560</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>44</v>
@@ -1765,7 +1774,7 @@
         <v>43</v>
       </c>
       <c r="N7" s="7">
-        <v>21013</v>
+        <v>21857</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>47</v>
@@ -1786,7 +1795,7 @@
         <v>331</v>
       </c>
       <c r="D8" s="7">
-        <v>260298</v>
+        <v>311443</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>50</v>
@@ -1801,7 +1810,7 @@
         <v>538</v>
       </c>
       <c r="I8" s="7">
-        <v>271403</v>
+        <v>289635</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>50</v>
@@ -1816,7 +1825,7 @@
         <v>869</v>
       </c>
       <c r="N8" s="7">
-        <v>531700</v>
+        <v>601077</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>50</v>
@@ -1839,7 +1848,7 @@
         <v>182</v>
       </c>
       <c r="D9" s="7">
-        <v>261045</v>
+        <v>264268</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>52</v>
@@ -1854,7 +1863,7 @@
         <v>257</v>
       </c>
       <c r="I9" s="7">
-        <v>211460</v>
+        <v>196692</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>55</v>
@@ -1869,7 +1878,7 @@
         <v>439</v>
       </c>
       <c r="N9" s="7">
-        <v>472505</v>
+        <v>460960</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>58</v>
@@ -1890,7 +1899,7 @@
         <v>151</v>
       </c>
       <c r="D10" s="7">
-        <v>199457</v>
+        <v>196628</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>61</v>
@@ -1905,7 +1914,7 @@
         <v>322</v>
       </c>
       <c r="I10" s="7">
-        <v>244692</v>
+        <v>227653</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>64</v>
@@ -1920,7 +1929,7 @@
         <v>473</v>
       </c>
       <c r="N10" s="7">
-        <v>444148</v>
+        <v>424280</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>67</v>
@@ -1941,46 +1950,46 @@
         <v>37</v>
       </c>
       <c r="D11" s="7">
-        <v>43817</v>
+        <v>42591</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H11" s="7">
         <v>93</v>
       </c>
       <c r="I11" s="7">
-        <v>66049</v>
+        <v>61090</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M11" s="7">
         <v>130</v>
       </c>
       <c r="N11" s="7">
-        <v>109866</v>
+        <v>103681</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1992,40 +2001,40 @@
         <v>12</v>
       </c>
       <c r="D12" s="7">
-        <v>14978</v>
+        <v>14904</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H12" s="7">
         <v>43</v>
       </c>
       <c r="I12" s="7">
-        <v>30289</v>
+        <v>27876</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>55</v>
       </c>
       <c r="N12" s="7">
-        <v>45267</v>
+        <v>42779</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>85</v>
@@ -2043,7 +2052,7 @@
         <v>382</v>
       </c>
       <c r="D13" s="7">
-        <v>519297</v>
+        <v>518390</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>50</v>
@@ -2058,7 +2067,7 @@
         <v>715</v>
       </c>
       <c r="I13" s="7">
-        <v>552490</v>
+        <v>513311</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>50</v>
@@ -2073,7 +2082,7 @@
         <v>1097</v>
       </c>
       <c r="N13" s="7">
-        <v>1071787</v>
+        <v>1031701</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>50</v>
@@ -2096,7 +2105,7 @@
         <v>142</v>
       </c>
       <c r="D14" s="7">
-        <v>143922</v>
+        <v>143587</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>88</v>
@@ -2111,7 +2120,7 @@
         <v>165</v>
       </c>
       <c r="I14" s="7">
-        <v>129060</v>
+        <v>121195</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>91</v>
@@ -2126,7 +2135,7 @@
         <v>307</v>
       </c>
       <c r="N14" s="7">
-        <v>272982</v>
+        <v>264782</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>94</v>
@@ -2147,7 +2156,7 @@
         <v>120</v>
       </c>
       <c r="D15" s="7">
-        <v>97575</v>
+        <v>94447</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>97</v>
@@ -2162,7 +2171,7 @@
         <v>184</v>
       </c>
       <c r="I15" s="7">
-        <v>124667</v>
+        <v>116496</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>100</v>
@@ -2177,7 +2186,7 @@
         <v>304</v>
       </c>
       <c r="N15" s="7">
-        <v>222241</v>
+        <v>210943</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>103</v>
@@ -2198,7 +2207,7 @@
         <v>66</v>
       </c>
       <c r="D16" s="7">
-        <v>55674</v>
+        <v>53910</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>106</v>
@@ -2213,7 +2222,7 @@
         <v>121</v>
       </c>
       <c r="I16" s="7">
-        <v>78016</v>
+        <v>72563</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>109</v>
@@ -2228,7 +2237,7 @@
         <v>187</v>
       </c>
       <c r="N16" s="7">
-        <v>133690</v>
+        <v>126473</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>112</v>
@@ -2249,7 +2258,7 @@
         <v>31</v>
       </c>
       <c r="D17" s="7">
-        <v>24403</v>
+        <v>23475</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>115</v>
@@ -2264,7 +2273,7 @@
         <v>63</v>
       </c>
       <c r="I17" s="7">
-        <v>37737</v>
+        <v>34951</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>118</v>
@@ -2279,7 +2288,7 @@
         <v>94</v>
       </c>
       <c r="N17" s="7">
-        <v>62141</v>
+        <v>58426</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>121</v>
@@ -2300,7 +2309,7 @@
         <v>359</v>
       </c>
       <c r="D18" s="7">
-        <v>321574</v>
+        <v>315418</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>50</v>
@@ -2315,7 +2324,7 @@
         <v>533</v>
       </c>
       <c r="I18" s="7">
-        <v>369480</v>
+        <v>345205</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>50</v>
@@ -2330,7 +2339,7 @@
         <v>892</v>
       </c>
       <c r="N18" s="7">
-        <v>691054</v>
+        <v>660623</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>50</v>
@@ -2353,7 +2362,7 @@
         <v>125</v>
       </c>
       <c r="D19" s="7">
-        <v>153377</v>
+        <v>150377</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>125</v>
@@ -2368,7 +2377,7 @@
         <v>193</v>
       </c>
       <c r="I19" s="7">
-        <v>153310</v>
+        <v>141017</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>128</v>
@@ -2383,7 +2392,7 @@
         <v>318</v>
       </c>
       <c r="N19" s="7">
-        <v>306686</v>
+        <v>291394</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>131</v>
@@ -2404,7 +2413,7 @@
         <v>107</v>
       </c>
       <c r="D20" s="7">
-        <v>102646</v>
+        <v>98909</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>134</v>
@@ -2419,7 +2428,7 @@
         <v>210</v>
       </c>
       <c r="I20" s="7">
-        <v>165779</v>
+        <v>232524</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>137</v>
@@ -2434,16 +2443,16 @@
         <v>317</v>
       </c>
       <c r="N20" s="7">
-        <v>268425</v>
+        <v>331433</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2455,46 +2464,46 @@
         <v>37</v>
       </c>
       <c r="D21" s="7">
-        <v>40789</v>
+        <v>39022</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H21" s="7">
         <v>134</v>
       </c>
       <c r="I21" s="7">
-        <v>76095</v>
+        <v>71089</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M21" s="7">
         <v>171</v>
       </c>
       <c r="N21" s="7">
-        <v>116884</v>
+        <v>110111</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2506,46 +2515,46 @@
         <v>17</v>
       </c>
       <c r="D22" s="7">
-        <v>20878</v>
+        <v>19913</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H22" s="7">
         <v>52</v>
       </c>
       <c r="I22" s="7">
-        <v>27979</v>
+        <v>26037</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M22" s="7">
         <v>69</v>
       </c>
       <c r="N22" s="7">
-        <v>48857</v>
+        <v>45950</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2557,7 +2566,7 @@
         <v>286</v>
       </c>
       <c r="D23" s="7">
-        <v>317690</v>
+        <v>308220</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>50</v>
@@ -2572,7 +2581,7 @@
         <v>589</v>
       </c>
       <c r="I23" s="7">
-        <v>423162</v>
+        <v>470668</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>50</v>
@@ -2587,7 +2596,7 @@
         <v>875</v>
       </c>
       <c r="N23" s="7">
-        <v>740852</v>
+        <v>778888</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>50</v>
@@ -2601,7 +2610,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2610,46 +2619,46 @@
         <v>41</v>
       </c>
       <c r="D24" s="7">
-        <v>34934</v>
+        <v>31181</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H24" s="7">
         <v>41</v>
       </c>
       <c r="I24" s="7">
-        <v>23119</v>
+        <v>20123</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M24" s="7">
         <v>82</v>
       </c>
       <c r="N24" s="7">
-        <v>58054</v>
+        <v>51304</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2661,25 +2670,25 @@
         <v>132</v>
       </c>
       <c r="D25" s="7">
-        <v>96973</v>
+        <v>88215</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H25" s="7">
         <v>190</v>
       </c>
       <c r="I25" s="7">
-        <v>93994</v>
+        <v>84245</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>173</v>
+        <v>65</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>174</v>
@@ -2691,7 +2700,7 @@
         <v>322</v>
       </c>
       <c r="N25" s="7">
-        <v>190968</v>
+        <v>172460</v>
       </c>
       <c r="O25" s="7" t="s">
         <v>176</v>
@@ -2712,7 +2721,7 @@
         <v>101</v>
       </c>
       <c r="D26" s="7">
-        <v>61695</v>
+        <v>56500</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>179</v>
@@ -2727,7 +2736,7 @@
         <v>250</v>
       </c>
       <c r="I26" s="7">
-        <v>110267</v>
+        <v>100151</v>
       </c>
       <c r="J26" s="7" t="s">
         <v>182</v>
@@ -2742,7 +2751,7 @@
         <v>351</v>
       </c>
       <c r="N26" s="7">
-        <v>171962</v>
+        <v>156651</v>
       </c>
       <c r="O26" s="7" t="s">
         <v>185</v>
@@ -2763,7 +2772,7 @@
         <v>3</v>
       </c>
       <c r="D27" s="7">
-        <v>1950</v>
+        <v>1771</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>188</v>
@@ -2778,7 +2787,7 @@
         <v>8</v>
       </c>
       <c r="I27" s="7">
-        <v>3297</v>
+        <v>3018</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>191</v>
@@ -2793,7 +2802,7 @@
         <v>11</v>
       </c>
       <c r="N27" s="7">
-        <v>5247</v>
+        <v>4789</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>194</v>
@@ -2814,7 +2823,7 @@
         <v>277</v>
       </c>
       <c r="D28" s="7">
-        <v>195552</v>
+        <v>177667</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>50</v>
@@ -2829,7 +2838,7 @@
         <v>489</v>
       </c>
       <c r="I28" s="7">
-        <v>230678</v>
+        <v>207537</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>50</v>
@@ -2844,7 +2853,7 @@
         <v>766</v>
       </c>
       <c r="N28" s="7">
-        <v>426231</v>
+        <v>385204</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>50</v>
@@ -2867,7 +2876,7 @@
         <v>143</v>
       </c>
       <c r="D29" s="7">
-        <v>125229</v>
+        <v>123127</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>198</v>
@@ -2882,7 +2891,7 @@
         <v>150</v>
       </c>
       <c r="I29" s="7">
-        <v>110825</v>
+        <v>103487</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>201</v>
@@ -2897,7 +2906,7 @@
         <v>293</v>
       </c>
       <c r="N29" s="7">
-        <v>236053</v>
+        <v>226614</v>
       </c>
       <c r="O29" s="7" t="s">
         <v>204</v>
@@ -2918,7 +2927,7 @@
         <v>118</v>
       </c>
       <c r="D30" s="7">
-        <v>84169</v>
+        <v>81736</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>207</v>
@@ -2933,7 +2942,7 @@
         <v>153</v>
       </c>
       <c r="I30" s="7">
-        <v>89130</v>
+        <v>82942</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>210</v>
@@ -2948,7 +2957,7 @@
         <v>271</v>
       </c>
       <c r="N30" s="7">
-        <v>173298</v>
+        <v>164678</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>213</v>
@@ -2957,7 +2966,7 @@
         <v>214</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>215</v>
+        <v>56</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2969,46 +2978,46 @@
         <v>79</v>
       </c>
       <c r="D31" s="7">
-        <v>48766</v>
+        <v>46563</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="G31" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>218</v>
       </c>
       <c r="H31" s="7">
         <v>88</v>
       </c>
       <c r="I31" s="7">
-        <v>46094</v>
+        <v>43087</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="K31" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="K31" s="7" t="s">
+      <c r="L31" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>221</v>
       </c>
       <c r="M31" s="7">
         <v>167</v>
       </c>
       <c r="N31" s="7">
-        <v>94860</v>
+        <v>89650</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="P31" s="7" t="s">
+      <c r="Q31" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3020,46 +3029,46 @@
         <v>31</v>
       </c>
       <c r="D32" s="7">
-        <v>19059</v>
+        <v>18209</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="G32" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>227</v>
       </c>
       <c r="H32" s="7">
         <v>69</v>
       </c>
       <c r="I32" s="7">
-        <v>29574</v>
+        <v>27540</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>230</v>
       </c>
       <c r="M32" s="7">
         <v>100</v>
       </c>
       <c r="N32" s="7">
-        <v>48633</v>
+        <v>45750</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3071,7 +3080,7 @@
         <v>371</v>
       </c>
       <c r="D33" s="7">
-        <v>277223</v>
+        <v>269636</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>50</v>
@@ -3086,7 +3095,7 @@
         <v>460</v>
       </c>
       <c r="I33" s="7">
-        <v>275622</v>
+        <v>257056</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>50</v>
@@ -3101,7 +3110,7 @@
         <v>831</v>
       </c>
       <c r="N33" s="7">
-        <v>552845</v>
+        <v>526692</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>50</v>
@@ -3115,7 +3124,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -3124,46 +3133,46 @@
         <v>238</v>
       </c>
       <c r="D34" s="7">
-        <v>265301</v>
+        <v>269187</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>237</v>
       </c>
       <c r="H34" s="7">
         <v>297</v>
       </c>
       <c r="I34" s="7">
-        <v>224769</v>
+        <v>209551</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>240</v>
       </c>
       <c r="M34" s="7">
         <v>535</v>
       </c>
       <c r="N34" s="7">
-        <v>490071</v>
+        <v>478737</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3175,40 +3184,40 @@
         <v>247</v>
       </c>
       <c r="D35" s="7">
-        <v>245442</v>
+        <v>241162</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="F35" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="G35" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>245</v>
       </c>
       <c r="H35" s="7">
         <v>414</v>
       </c>
       <c r="I35" s="7">
-        <v>400703</v>
+        <v>474160</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="K35" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="K35" s="7" t="s">
+      <c r="L35" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>248</v>
       </c>
       <c r="M35" s="7">
         <v>661</v>
       </c>
       <c r="N35" s="7">
-        <v>646145</v>
+        <v>715321</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>198</v>
+        <v>248</v>
       </c>
       <c r="P35" s="7" t="s">
         <v>249</v>
@@ -3226,7 +3235,7 @@
         <v>91</v>
       </c>
       <c r="D36" s="7">
-        <v>92844</v>
+        <v>90123</v>
       </c>
       <c r="E36" s="7" t="s">
         <v>251</v>
@@ -3241,7 +3250,7 @@
         <v>172</v>
       </c>
       <c r="I36" s="7">
-        <v>125307</v>
+        <v>115890</v>
       </c>
       <c r="J36" s="7" t="s">
         <v>254</v>
@@ -3256,7 +3265,7 @@
         <v>263</v>
       </c>
       <c r="N36" s="7">
-        <v>218151</v>
+        <v>206012</v>
       </c>
       <c r="O36" s="7" t="s">
         <v>257</v>
@@ -3277,7 +3286,7 @@
         <v>22</v>
       </c>
       <c r="D37" s="7">
-        <v>23402</v>
+        <v>23096</v>
       </c>
       <c r="E37" s="7" t="s">
         <v>260</v>
@@ -3292,7 +3301,7 @@
         <v>76</v>
       </c>
       <c r="I37" s="7">
-        <v>52737</v>
+        <v>49020</v>
       </c>
       <c r="J37" s="7" t="s">
         <v>263</v>
@@ -3307,16 +3316,16 @@
         <v>98</v>
       </c>
       <c r="N37" s="7">
-        <v>76139</v>
+        <v>72116</v>
       </c>
       <c r="O37" s="7" t="s">
         <v>266</v>
       </c>
       <c r="P37" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q37" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3328,7 +3337,7 @@
         <v>598</v>
       </c>
       <c r="D38" s="7">
-        <v>626990</v>
+        <v>623567</v>
       </c>
       <c r="E38" s="7" t="s">
         <v>50</v>
@@ -3343,7 +3352,7 @@
         <v>959</v>
       </c>
       <c r="I38" s="7">
-        <v>803516</v>
+        <v>848620</v>
       </c>
       <c r="J38" s="7" t="s">
         <v>50</v>
@@ -3358,7 +3367,7 @@
         <v>1557</v>
       </c>
       <c r="N38" s="7">
-        <v>1430506</v>
+        <v>1472187</v>
       </c>
       <c r="O38" s="7" t="s">
         <v>50</v>
@@ -3381,7 +3390,7 @@
         <v>302</v>
       </c>
       <c r="D39" s="7">
-        <v>404844</v>
+        <v>542659</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>269</v>
@@ -3396,7 +3405,7 @@
         <v>320</v>
       </c>
       <c r="I39" s="7">
-        <v>297348</v>
+        <v>243510</v>
       </c>
       <c r="J39" s="7" t="s">
         <v>272</v>
@@ -3405,22 +3414,22 @@
         <v>273</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>212</v>
+        <v>274</v>
       </c>
       <c r="M39" s="7">
         <v>622</v>
       </c>
       <c r="N39" s="7">
-        <v>702191</v>
+        <v>786170</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3432,46 +3441,46 @@
         <v>292</v>
       </c>
       <c r="D40" s="7">
-        <v>298093</v>
+        <v>251972</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H40" s="7">
         <v>468</v>
       </c>
       <c r="I40" s="7">
-        <v>362957</v>
+        <v>302016</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="M40" s="7">
         <v>760</v>
       </c>
       <c r="N40" s="7">
-        <v>661049</v>
+        <v>553988</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3483,46 +3492,46 @@
         <v>135</v>
       </c>
       <c r="D41" s="7">
-        <v>126066</v>
+        <v>108095</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H41" s="7">
         <v>215</v>
       </c>
       <c r="I41" s="7">
-        <v>158171</v>
+        <v>131235</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="M41" s="7">
         <v>350</v>
       </c>
       <c r="N41" s="7">
-        <v>284237</v>
+        <v>239331</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3534,46 +3543,46 @@
         <v>33</v>
       </c>
       <c r="D42" s="7">
-        <v>30426</v>
+        <v>25993</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="H42" s="7">
         <v>59</v>
       </c>
       <c r="I42" s="7">
-        <v>49959</v>
+        <v>40970</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="M42" s="7">
         <v>92</v>
       </c>
       <c r="N42" s="7">
-        <v>80384</v>
+        <v>66963</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3585,7 +3594,7 @@
         <v>762</v>
       </c>
       <c r="D43" s="7">
-        <v>859428</v>
+        <v>928720</v>
       </c>
       <c r="E43" s="7" t="s">
         <v>50</v>
@@ -3600,7 +3609,7 @@
         <v>1062</v>
       </c>
       <c r="I43" s="7">
-        <v>868434</v>
+        <v>717731</v>
       </c>
       <c r="J43" s="7" t="s">
         <v>50</v>
@@ -3615,7 +3624,7 @@
         <v>1824</v>
       </c>
       <c r="N43" s="7">
-        <v>1727862</v>
+        <v>1646452</v>
       </c>
       <c r="O43" s="7" t="s">
         <v>50</v>
@@ -3638,46 +3647,46 @@
         <v>1189</v>
       </c>
       <c r="D44" s="7">
-        <v>1407044</v>
+        <v>1550589</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>126</v>
+        <v>305</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="H44" s="7">
         <v>1424</v>
       </c>
       <c r="I44" s="7">
-        <v>1150050</v>
+        <v>1035742</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="M44" s="7">
         <v>2613</v>
       </c>
       <c r="N44" s="7">
-        <v>2557094</v>
+        <v>2586330</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>209</v>
+        <v>311</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3689,46 +3698,46 @@
         <v>1379</v>
       </c>
       <c r="D45" s="7">
-        <v>1296029</v>
+        <v>1259715</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="H45" s="7">
         <v>2255</v>
       </c>
       <c r="I45" s="7">
-        <v>1647478</v>
+        <v>1698668</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="M45" s="7">
         <v>3634</v>
       </c>
       <c r="N45" s="7">
-        <v>2943507</v>
+        <v>2958382</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -3740,46 +3749,46 @@
         <v>641</v>
       </c>
       <c r="D46" s="7">
-        <v>534956</v>
+        <v>510100</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="H46" s="7">
         <v>1261</v>
       </c>
       <c r="I46" s="7">
-        <v>749599</v>
+        <v>689381</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="M46" s="7">
         <v>1902</v>
       </c>
       <c r="N46" s="7">
-        <v>1284555</v>
+        <v>1199481</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3791,46 +3800,46 @@
         <v>157</v>
       </c>
       <c r="D47" s="7">
-        <v>140023</v>
+        <v>132658</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="H47" s="7">
         <v>405</v>
       </c>
       <c r="I47" s="7">
-        <v>247659</v>
+        <v>225973</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="M47" s="7">
         <v>562</v>
       </c>
       <c r="N47" s="7">
-        <v>387682</v>
+        <v>358630</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>336</v>
+        <v>86</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -3842,7 +3851,7 @@
         <v>3366</v>
       </c>
       <c r="D48" s="7">
-        <v>3378053</v>
+        <v>3453061</v>
       </c>
       <c r="E48" s="7" t="s">
         <v>50</v>
@@ -3857,7 +3866,7 @@
         <v>5345</v>
       </c>
       <c r="I48" s="7">
-        <v>3794786</v>
+        <v>3649763</v>
       </c>
       <c r="J48" s="7" t="s">
         <v>50</v>
@@ -3872,7 +3881,7 @@
         <v>8711</v>
       </c>
       <c r="N48" s="7">
-        <v>7172838</v>
+        <v>7102823</v>
       </c>
       <c r="O48" s="7" t="s">
         <v>50</v>
@@ -3886,7 +3895,7 @@
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
     </row>
   </sheetData>
